--- a/R_with_Ammar/Data/CO2_data.xlsx
+++ b/R_with_Ammar/Data/CO2_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Programming\R_Programming\Data Sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Programming\R_Programming\R_with_Ammar\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C02C11-EE07-4585-AF6A-3546331C083A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398E0DC6-F953-410A-BF21-C70E45578FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CO2" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1924,8 +1926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F281C6C9-FE87-496C-867D-5FDC81156034}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
